--- a/procurement.xlsx
+++ b/procurement.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35000" yWindow="-5060" windowWidth="18320" windowHeight="13960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="Procurement" sheetId="2" r:id="rId2"/>
+    <sheet name="SA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="PARTS_LIST">PARTS_LIST!$A$1:$E$89</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="367">
   <si>
     <t>ITEM</t>
   </si>
@@ -985,27 +986,180 @@
     <t>hubjig.iam</t>
   </si>
   <si>
-    <t>10"</t>
-  </si>
-  <si>
-    <t>36" sonotube</t>
-  </si>
-  <si>
-    <t>18" sonotube</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Poles</t>
+  </si>
+  <si>
+    <t>7+ m</t>
+  </si>
+  <si>
+    <t>6-8" diameter</t>
+  </si>
+  <si>
+    <t>10'</t>
+  </si>
+  <si>
+    <t>Hubs</t>
+  </si>
+  <si>
+    <t>3/8" rebar</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>2" sch 40 pvc</t>
+  </si>
+  <si>
+    <t>1'</t>
+  </si>
+  <si>
+    <t>36" sonotube (in 10" lengths)</t>
+  </si>
+  <si>
+    <t>18" sonotube (in 10" lengths)</t>
+  </si>
+  <si>
+    <t>3"conduit (in 12" lengths)</t>
+  </si>
+  <si>
+    <t>2.5" conduit (in 12" lengths)</t>
+  </si>
+  <si>
+    <t>2" T</t>
+  </si>
+  <si>
+    <t>2" couplers</t>
+  </si>
+  <si>
+    <t>Meters needed</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>poles</t>
+  </si>
+  <si>
+    <t>spar (long)</t>
+  </si>
+  <si>
+    <t>spar (short)</t>
+  </si>
+  <si>
+    <t>support (horiz)</t>
+  </si>
+  <si>
+    <t>support (vert)</t>
+  </si>
+  <si>
+    <t>#/antenna</t>
+  </si>
+  <si>
+    <t>high-tension springs</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>ratchet hoist</t>
+  </si>
+  <si>
+    <t>90mm PVC-M class 20</t>
+  </si>
+  <si>
+    <t>63mm PVC-M class 20</t>
+  </si>
+  <si>
+    <t>rim (wood 40x150mm x 3.7m)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>63mm couplers</t>
+  </si>
+  <si>
+    <t>qty/antenna</t>
+  </si>
+  <si>
+    <t>63mm T couplers</t>
+  </si>
+  <si>
+    <t>Antenna Number</t>
+  </si>
+  <si>
+    <t>kevlar guy line</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>chicken wire (1.5m rolls?)</t>
+  </si>
+  <si>
+    <t>mesh (10x10mm welded square - 1.2m rolls)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>support endcaps (welded structure)</t>
+  </si>
+  <si>
+    <t>feed support plate (welded structure)</t>
+  </si>
+  <si>
+    <t>feed backplanes (assembled light structure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="32"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="32"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="MS Sans Serif"/>
+      <family val="32"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1016,7 +1170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1024,16 +1178,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="69">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1433,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1514,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1534,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2915,38 +3310,972 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="G3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f>30*10/12</f>
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7">
+        <f>A7*10*2.54/100</f>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8">
+        <f>A8*10*2.54/100</f>
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f>D13*25</f>
+        <v>1775</v>
+      </c>
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13">
+        <f>ROUNDUP(12*(25+10+2+18+4)/10,0)</f>
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <f>A13*10*2.54/100</f>
+        <v>450.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f>D14*25</f>
+        <v>1500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f>D15*25</f>
+        <v>900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15">
+        <f>3*12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22">
+        <f>292*2.54</f>
+        <v>741.68000000000006</v>
+      </c>
+      <c r="G22">
+        <f>12*30*2.54</f>
+        <v>914.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="E1" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="3">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3">
+        <v>91</v>
+      </c>
+      <c r="H2" s="3">
+        <v>331</v>
+      </c>
+      <c r="I2" s="3">
+        <v>352</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3*C3</f>
+        <v>89.4</v>
+      </c>
+      <c r="E3" s="4">
+        <f>E$2*$D3</f>
+        <v>1698.6000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:I3" si="0">F$2*$D3</f>
+        <v>3307.8</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>8135.4000000000005</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>29591.4</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>31468.800000000003</v>
+      </c>
+      <c r="K3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D19" si="1">B4*C4</f>
+        <v>36.839999999999996</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:I19" si="2">E$2*$D4</f>
+        <v>699.95999999999992</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>1363.08</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>3352.4399999999996</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>12194.039999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="2"/>
+        <v>12967.679999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>1332</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>3276</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>11916</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>12672</v>
+      </c>
+      <c r="K5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" thickBot="1">
+      <c r="A6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>1986</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>2112</v>
+      </c>
+      <c r="K6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B3:B6)</f>
+        <v>14.02</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(D3:D6)</f>
+        <v>168.24</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUM(E3:E6)</f>
+        <v>3196.56</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7:I7" si="3">SUM(F3:F6)</f>
+        <v>6224.88</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="3"/>
+        <v>15309.84</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>55687.44</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="3"/>
+        <v>59220.480000000003</v>
+      </c>
+      <c r="K7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="4">B8*C8</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
+        <v>68.399999999999991</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>327.59999999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>1267.1999999999998</v>
+      </c>
+      <c r="K8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>1092</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>3972</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="2"/>
+        <v>4224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" ref="D10" si="5">B10*C10</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>1092</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>3972</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="2"/>
+        <v>4224</v>
+      </c>
+      <c r="K10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11">
+        <v>3.66</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>43.92</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>834.48</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>1625.04</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>3996.7200000000003</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>14537.52</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="2"/>
+        <v>15459.84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="K12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="15">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6">
+        <v>108</v>
+      </c>
+      <c r="H13" s="13">
+        <v>363</v>
+      </c>
+      <c r="I13" s="17">
+        <v>426</v>
+      </c>
+      <c r="K13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>129</v>
+      </c>
+      <c r="F14" s="6">
+        <v>243</v>
+      </c>
+      <c r="G14" s="13">
+        <v>579</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2049</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2238</v>
+      </c>
+      <c r="K14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v>180</v>
+      </c>
+      <c r="E15" s="15">
+        <f>E$2*$D15</f>
+        <v>3420</v>
+      </c>
+      <c r="F15" s="6">
+        <f>F$2*$D15</f>
+        <v>6660</v>
+      </c>
+      <c r="G15" s="6">
+        <f>G$2*$D15</f>
+        <v>16380</v>
+      </c>
+      <c r="H15" s="6">
+        <f>H$2*$D15</f>
+        <v>59580</v>
+      </c>
+      <c r="I15" s="17">
+        <f>I$2*$D15</f>
+        <v>63360</v>
+      </c>
+      <c r="K15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" thickBot="1">
+      <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="5">
+        <f>2*PI()*7*3</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16" si="6">B16*C16</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="E16" s="19">
+        <f>E$2*$D16</f>
+        <v>2506.9909375646548</v>
+      </c>
+      <c r="F16" s="20">
+        <f>F$2*$D16</f>
+        <v>4882.034983678539</v>
+      </c>
+      <c r="G16" s="20">
+        <f>G$2*$D16</f>
+        <v>12007.16712202019</v>
+      </c>
+      <c r="H16" s="20">
+        <f>H$2*$D16</f>
+        <v>43674.42107020531</v>
+      </c>
+      <c r="I16" s="21">
+        <f>I$2*$D16</f>
+        <v>46445.305790671504</v>
+      </c>
+      <c r="K16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>1332</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>3276</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>11916</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="2"/>
+        <v>12672</v>
+      </c>
+      <c r="K17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>993</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
+        <v>1056</v>
+      </c>
+      <c r="K18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="K19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="7">B20*C20</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ref="E20:I20" si="8">E$2*$D20</f>
+        <v>19</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="8"/>
+        <v>352</v>
+      </c>
+      <c r="K20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18">
+        <f>3*E13</f>
+        <v>81</v>
+      </c>
+      <c r="F21" s="6">
+        <f>3*F13</f>
+        <v>144</v>
+      </c>
+      <c r="G21" s="6">
+        <f>3*G13</f>
+        <v>324</v>
+      </c>
+      <c r="H21" s="6">
+        <f>3*H13</f>
+        <v>1089</v>
+      </c>
+      <c r="I21" s="18">
+        <f>3*I13</f>
+        <v>1278</v>
+      </c>
+      <c r="K21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="9">B22*C22</f>
+        <v>12</v>
+      </c>
+      <c r="E22" s="18">
+        <f>E$2*$D22</f>
+        <v>228</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:I22" si="10">F$2*$D22</f>
+        <v>444</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="10"/>
+        <v>1092</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="10"/>
+        <v>3972</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="10"/>
+        <v>4224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
